--- a/data/raw_xlsx/Times For Colin Cordes.xlsx
+++ b/data/raw_xlsx/Times For Colin Cordes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="164">
   <si>
     <t>Event</t>
   </si>
@@ -365,6 +365,150 @@
   </si>
   <si>
     <t>6/5/2008</t>
+  </si>
+  <si>
+    <t>2010 Ivy League Champs men</t>
+  </si>
+  <si>
+    <t>3/4/2010</t>
+  </si>
+  <si>
+    <t>44.63r</t>
+  </si>
+  <si>
+    <t>3/6/2010</t>
+  </si>
+  <si>
+    <t>11/13/2009</t>
+  </si>
+  <si>
+    <t>24.88r</t>
+  </si>
+  <si>
+    <t>"Slower than B"</t>
+  </si>
+  <si>
+    <t>11/14/2009</t>
+  </si>
+  <si>
+    <t>53.01r</t>
+  </si>
+  <si>
+    <t>2009 MA OB Bucknell Invitational</t>
+  </si>
+  <si>
+    <t>12/4/2009</t>
+  </si>
+  <si>
+    <t>2009 MN USA Swimming Speedo Championships</t>
+  </si>
+  <si>
+    <t>WILD</t>
+  </si>
+  <si>
+    <t>7/22/2009</t>
+  </si>
+  <si>
+    <t>2009 U. S. Open Time Trials</t>
+  </si>
+  <si>
+    <t>8/4/2009</t>
+  </si>
+  <si>
+    <t>2009 U. S. Open</t>
+  </si>
+  <si>
+    <t>2011 Ivy League Champs men</t>
+  </si>
+  <si>
+    <t>3/3/2011</t>
+  </si>
+  <si>
+    <t>Dartmouth vs. Princeton Univer</t>
+  </si>
+  <si>
+    <t>1/23/2011</t>
+  </si>
+  <si>
+    <t>2010 Summer Nationals</t>
+  </si>
+  <si>
+    <t>8/3/2010</t>
+  </si>
+  <si>
+    <t>2011 NE CRIM LC Invite</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>3/6/2011</t>
+  </si>
+  <si>
+    <t>2010 MN TWIN Speedo Champs</t>
+  </si>
+  <si>
+    <t>7/21/2010</t>
+  </si>
+  <si>
+    <t>2020 Olympic Trials Wave I</t>
+  </si>
+  <si>
+    <t>2012 IVY League Champs men</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>3/1/2012</t>
+  </si>
+  <si>
+    <t>44.02r</t>
+  </si>
+  <si>
+    <t>3/3/2012</t>
+  </si>
+  <si>
+    <t>Princeton Fall Invitational 20</t>
+  </si>
+  <si>
+    <t>11/11/2011</t>
+  </si>
+  <si>
+    <t>Princeton vs. Columbia Men</t>
+  </si>
+  <si>
+    <t>2/10/2012</t>
+  </si>
+  <si>
+    <t>2011 Summer Nationals</t>
+  </si>
+  <si>
+    <t>8/2/2011</t>
+  </si>
+  <si>
+    <t>2011 Nationals TT</t>
+  </si>
+  <si>
+    <t>2012 NJS Memorial Day Invitational</t>
+  </si>
+  <si>
+    <t>PRIN</t>
+  </si>
+  <si>
+    <t>5/26/2012</t>
+  </si>
+  <si>
+    <t>2011 IA Speedo Champions Series - CZ Section 1</t>
+  </si>
+  <si>
+    <t>7/21/2011</t>
+  </si>
+  <si>
+    <t>2012 Olympic Trials</t>
+  </si>
+  <si>
+    <t>6/25/2012</t>
   </si>
 </sst>
 </file>
@@ -448,7 +592,7 @@
     <col min="4" max="4" customWidth="1" width="3.7142857142857144" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="6" max="6" customWidth="1" width="27.714285714285715" bestFit="1"/>
-    <col min="7" max="7" customWidth="1" width="38.714285714285715" bestFit="1"/>
+    <col min="7" max="7" customWidth="1" width="46.714285714285715" bestFit="1"/>
     <col min="8" max="8" customWidth="1" width="3.7142857142857144" bestFit="1"/>
     <col min="9" max="9" customWidth="1" width="4.714285714285714" bestFit="1"/>
     <col min="10" max="10" customWidth="1" width="10.714285714285714" bestFit="1"/>
@@ -2822,6 +2966,1222 @@
         <v>113</v>
       </c>
     </row>
+    <row r="75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2">
+        <v>33.50023368055555</v>
+      </c>
+      <c r="C75" s="2">
+        <v>36557.500233680556</v>
+      </c>
+      <c r="D75" t="n">
+        <v>19</v>
+      </c>
+      <c r="E75" t="n">
+        <v>872</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" t="s">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="2">
+        <v>36557.50051655093</v>
+      </c>
+      <c r="D76" t="n">
+        <v>19</v>
+      </c>
+      <c r="E76" t="n">
+        <v>856</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" t="s">
+        <v>103</v>
+      </c>
+      <c r="I76" t="s">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="3">
+        <v>33.501126273148145</v>
+      </c>
+      <c r="C77" s="3">
+        <v>33.501126273148145</v>
+      </c>
+      <c r="D77" t="n">
+        <v>19</v>
+      </c>
+      <c r="E77" t="n">
+        <v>875</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77" t="s">
+        <v>83</v>
+      </c>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="3">
+        <v>33.50323935185185</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33.50323935185185</v>
+      </c>
+      <c r="D78" t="n">
+        <v>19</v>
+      </c>
+      <c r="E78" t="n">
+        <v>715</v>
+      </c>
+      <c r="F78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>83</v>
+      </c>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="2">
+        <v>36557.50028796296</v>
+      </c>
+      <c r="D79" t="n">
+        <v>19</v>
+      </c>
+      <c r="E79" t="n">
+        <v>677</v>
+      </c>
+      <c r="F79" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="2">
+        <v>36557.50061354167</v>
+      </c>
+      <c r="D80" t="n">
+        <v>19</v>
+      </c>
+      <c r="E80" t="n">
+        <v>696</v>
+      </c>
+      <c r="F80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="3">
+        <v>33.5012275462963</v>
+      </c>
+      <c r="C81" s="3">
+        <v>33.5012275462963</v>
+      </c>
+      <c r="D81" t="n">
+        <v>19</v>
+      </c>
+      <c r="E81" t="n">
+        <v>917</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I81" t="s">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="3">
+        <v>33.50132835648148</v>
+      </c>
+      <c r="C82" s="3">
+        <v>33.50132835648148</v>
+      </c>
+      <c r="D82" t="n">
+        <v>19</v>
+      </c>
+      <c r="E82" t="n">
+        <v>737</v>
+      </c>
+      <c r="F82" t="s">
+        <v>70</v>
+      </c>
+      <c r="G82" t="s">
+        <v>125</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="2">
+        <v>33.50027800925926</v>
+      </c>
+      <c r="C83" s="2">
+        <v>36557.50027800926</v>
+      </c>
+      <c r="D83" t="n">
+        <v>19</v>
+      </c>
+      <c r="E83" t="n">
+        <v>823</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>127</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+      <c r="J83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="2">
+        <v>33.50060243055555</v>
+      </c>
+      <c r="C84" s="2">
+        <v>36557.500602430555</v>
+      </c>
+      <c r="D84" t="n">
+        <v>19</v>
+      </c>
+      <c r="E84" t="n">
+        <v>833</v>
+      </c>
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+      <c r="J84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="3">
+        <v>33.50132361111111</v>
+      </c>
+      <c r="C85" s="3">
+        <v>33.50132361111111</v>
+      </c>
+      <c r="D85" t="n">
+        <v>19</v>
+      </c>
+      <c r="E85" t="n">
+        <v>828</v>
+      </c>
+      <c r="F85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>128</v>
+      </c>
+      <c r="J85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="2">
+        <v>33.50068136574074</v>
+      </c>
+      <c r="C86" s="2">
+        <v>36557.50068136574</v>
+      </c>
+      <c r="D86" t="n">
+        <v>19</v>
+      </c>
+      <c r="E86" t="n">
+        <v>816</v>
+      </c>
+      <c r="F86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>130</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+      <c r="J86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="3">
+        <v>33.50145509259259</v>
+      </c>
+      <c r="C87" s="3">
+        <v>33.50145509259259</v>
+      </c>
+      <c r="D87" t="n">
+        <v>19</v>
+      </c>
+      <c r="E87" t="n">
+        <v>848</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s">
+        <v>132</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>128</v>
+      </c>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="2">
+        <v>33.500234837962964</v>
+      </c>
+      <c r="C88" s="2">
+        <v>36557.500234837964</v>
+      </c>
+      <c r="D88" t="n">
+        <v>20</v>
+      </c>
+      <c r="E88" t="n">
+        <v>862</v>
+      </c>
+      <c r="F88" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s">
+        <v>133</v>
+      </c>
+      <c r="H88" t="s">
+        <v>103</v>
+      </c>
+      <c r="I88" t="s">
+        <v>83</v>
+      </c>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="3">
+        <v>33.50111840277778</v>
+      </c>
+      <c r="C89" s="3">
+        <v>33.50111840277778</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20</v>
+      </c>
+      <c r="E89" t="n">
+        <v>894</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s">
+        <v>133</v>
+      </c>
+      <c r="H89" t="s">
+        <v>103</v>
+      </c>
+      <c r="I89" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="2">
+        <v>33.500586921296296</v>
+      </c>
+      <c r="C90" s="2">
+        <v>36557.5005869213</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20</v>
+      </c>
+      <c r="E90" t="n">
+        <v>802</v>
+      </c>
+      <c r="F90" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s">
+        <v>135</v>
+      </c>
+      <c r="H90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I90" t="s">
+        <v>83</v>
+      </c>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="3">
+        <v>33.50121006944445</v>
+      </c>
+      <c r="C91" s="3">
+        <v>33.50121006944445</v>
+      </c>
+      <c r="D91" t="n">
+        <v>20</v>
+      </c>
+      <c r="E91" t="n">
+        <v>952</v>
+      </c>
+      <c r="F91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91" t="s">
+        <v>83</v>
+      </c>
+      <c r="J91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <v>33.50027662037037</v>
+      </c>
+      <c r="C92" s="2">
+        <v>36557.50027662037</v>
+      </c>
+      <c r="D92" t="n">
+        <v>20</v>
+      </c>
+      <c r="E92" t="n">
+        <v>833</v>
+      </c>
+      <c r="F92" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" t="s">
+        <v>137</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="2">
+        <v>33.50060162037037</v>
+      </c>
+      <c r="C93" s="2">
+        <v>36557.50060162037</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20</v>
+      </c>
+      <c r="E93" t="n">
+        <v>836</v>
+      </c>
+      <c r="F93" t="s">
+        <v>109</v>
+      </c>
+      <c r="G93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" t="s">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="3">
+        <v>33.501317129629626</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33.501317129629626</v>
+      </c>
+      <c r="D94" t="n">
+        <v>20</v>
+      </c>
+      <c r="E94" t="n">
+        <v>841</v>
+      </c>
+      <c r="F94" t="s">
+        <v>109</v>
+      </c>
+      <c r="G94" t="s">
+        <v>137</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+      <c r="J94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="2">
+        <v>33.5006875</v>
+      </c>
+      <c r="C95" s="2">
+        <v>36557.5006875</v>
+      </c>
+      <c r="D95" t="n">
+        <v>20</v>
+      </c>
+      <c r="E95" t="n">
+        <v>794</v>
+      </c>
+      <c r="F95" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+      <c r="J95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="3">
+        <v>33.501443055555555</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33.501443055555555</v>
+      </c>
+      <c r="D96" t="n">
+        <v>20</v>
+      </c>
+      <c r="E96" t="n">
+        <v>868</v>
+      </c>
+      <c r="F96" t="s">
+        <v>144</v>
+      </c>
+      <c r="G96" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" t="s">
+        <v>140</v>
+      </c>
+      <c r="I96" t="s">
+        <v>83</v>
+      </c>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="2">
+        <v>33.50067395833333</v>
+      </c>
+      <c r="C97" s="2">
+        <v>36557.50067395833</v>
+      </c>
+      <c r="D97" t="n">
+        <v>20</v>
+      </c>
+      <c r="E97" t="n">
+        <v>737</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+      <c r="J97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="2">
+        <v>33.50023125</v>
+      </c>
+      <c r="C98" s="2">
+        <v>36557.50023125</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21</v>
+      </c>
+      <c r="E98" t="n">
+        <v>893</v>
+      </c>
+      <c r="F98" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" t="s">
+        <v>145</v>
+      </c>
+      <c r="H98" t="s">
+        <v>146</v>
+      </c>
+      <c r="I98" t="s">
+        <v>83</v>
+      </c>
+      <c r="J98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="2">
+        <v>36557.50050949074</v>
+      </c>
+      <c r="D99" t="n">
+        <v>21</v>
+      </c>
+      <c r="E99" t="n">
+        <v>889</v>
+      </c>
+      <c r="F99" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" t="s">
+        <v>145</v>
+      </c>
+      <c r="H99" t="s">
+        <v>146</v>
+      </c>
+      <c r="I99" t="s">
+        <v>83</v>
+      </c>
+      <c r="J99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="3">
+        <v>33.5011150462963</v>
+      </c>
+      <c r="C100" s="3">
+        <v>33.5011150462963</v>
+      </c>
+      <c r="D100" t="n">
+        <v>21</v>
+      </c>
+      <c r="E100" t="n">
+        <v>902</v>
+      </c>
+      <c r="F100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" t="s">
+        <v>145</v>
+      </c>
+      <c r="H100" t="s">
+        <v>146</v>
+      </c>
+      <c r="I100" t="s">
+        <v>83</v>
+      </c>
+      <c r="J100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="3">
+        <v>33.50317037037037</v>
+      </c>
+      <c r="C101" s="3">
+        <v>33.50317037037037</v>
+      </c>
+      <c r="D101" t="n">
+        <v>21</v>
+      </c>
+      <c r="E101" t="n">
+        <v>771</v>
+      </c>
+      <c r="F101" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" t="s">
+        <v>150</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="2">
+        <v>33.50059097222222</v>
+      </c>
+      <c r="C102" s="2">
+        <v>36557.500590972224</v>
+      </c>
+      <c r="D102" t="n">
+        <v>21</v>
+      </c>
+      <c r="E102" t="n">
+        <v>785</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>152</v>
+      </c>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102" t="s">
+        <v>83</v>
+      </c>
+      <c r="J102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.501215046296295</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.501215046296295</v>
+      </c>
+      <c r="D103" t="n">
+        <v>21</v>
+      </c>
+      <c r="E103" t="n">
+        <v>942</v>
+      </c>
+      <c r="F103" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" t="s">
+        <v>145</v>
+      </c>
+      <c r="H103" t="s">
+        <v>146</v>
+      </c>
+      <c r="I103" t="s">
+        <v>83</v>
+      </c>
+      <c r="J103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" s="2">
+        <v>33.500593287037034</v>
+      </c>
+      <c r="C104" s="2">
+        <v>36557.50059328703</v>
+      </c>
+      <c r="D104" t="n">
+        <v>21</v>
+      </c>
+      <c r="E104" t="n">
+        <v>742</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>152</v>
+      </c>
+      <c r="H104" t="s">
+        <v>103</v>
+      </c>
+      <c r="I104" t="s">
+        <v>83</v>
+      </c>
+      <c r="J104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="2">
+        <v>33.50027650462963</v>
+      </c>
+      <c r="C105" s="2">
+        <v>36557.50027650463</v>
+      </c>
+      <c r="D105" t="n">
+        <v>21</v>
+      </c>
+      <c r="E105" t="n">
+        <v>834</v>
+      </c>
+      <c r="F105" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" t="s">
+        <v>154</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+      <c r="J105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="2">
+        <v>33.500589930555556</v>
+      </c>
+      <c r="C106" s="2">
+        <v>36557.500589930554</v>
+      </c>
+      <c r="D106" t="n">
+        <v>21</v>
+      </c>
+      <c r="E106" t="n">
+        <v>884</v>
+      </c>
+      <c r="F106" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" t="s">
+        <v>156</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>128</v>
+      </c>
+      <c r="J106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="3">
+        <v>33.50130439814815</v>
+      </c>
+      <c r="C107" s="3">
+        <v>33.50130439814815</v>
+      </c>
+      <c r="D107" t="n">
+        <v>21</v>
+      </c>
+      <c r="E107" t="n">
+        <v>867</v>
+      </c>
+      <c r="F107" t="s">
+        <v>144</v>
+      </c>
+      <c r="G107" t="s">
+        <v>154</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>128</v>
+      </c>
+      <c r="J107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="2">
+        <v>33.50069108796296</v>
+      </c>
+      <c r="C108" s="2">
+        <v>36557.50069108796</v>
+      </c>
+      <c r="D108" t="n">
+        <v>21</v>
+      </c>
+      <c r="E108" t="n">
+        <v>782</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>157</v>
+      </c>
+      <c r="H108" t="s">
+        <v>146</v>
+      </c>
+      <c r="I108" t="s">
+        <v>158</v>
+      </c>
+      <c r="J108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="3">
+        <v>33.50149282407408</v>
+      </c>
+      <c r="C109" s="3">
+        <v>33.50149282407408</v>
+      </c>
+      <c r="D109" t="n">
+        <v>21</v>
+      </c>
+      <c r="E109" t="n">
+        <v>785</v>
+      </c>
+      <c r="F109" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" t="s">
+        <v>160</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>128</v>
+      </c>
+      <c r="J109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="2">
+        <v>33.500596296296294</v>
+      </c>
+      <c r="C110" s="2">
+        <v>36557.5005962963</v>
+      </c>
+      <c r="D110" t="n">
+        <v>22</v>
+      </c>
+      <c r="E110" t="n">
+        <v>858</v>
+      </c>
+      <c r="F110" t="s">
+        <v>109</v>
+      </c>
+      <c r="G110" t="s">
+        <v>162</v>
+      </c>
+      <c r="H110" t="s">
+        <v>146</v>
+      </c>
+      <c r="I110" t="s">
+        <v>158</v>
+      </c>
+      <c r="J110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="3">
+        <v>33.50131921296296</v>
+      </c>
+      <c r="C111" s="3">
+        <v>33.50131921296296</v>
+      </c>
+      <c r="D111" t="n">
+        <v>22</v>
+      </c>
+      <c r="E111" t="n">
+        <v>837</v>
+      </c>
+      <c r="F111" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s">
+        <v>162</v>
+      </c>
+      <c r="H111" t="s">
+        <v>146</v>
+      </c>
+      <c r="I111" t="s">
+        <v>158</v>
+      </c>
+      <c r="J111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="3">
+        <v>33.50146157407407</v>
+      </c>
+      <c r="C112" s="3">
+        <v>33.50146157407407</v>
+      </c>
+      <c r="D112" t="n">
+        <v>22</v>
+      </c>
+      <c r="E112" t="n">
+        <v>837</v>
+      </c>
+      <c r="F112" t="s">
+        <v>109</v>
+      </c>
+      <c r="G112" t="s">
+        <v>162</v>
+      </c>
+      <c r="H112" t="s">
+        <v>146</v>
+      </c>
+      <c r="I112" t="s">
+        <v>158</v>
+      </c>
+      <c r="J112" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
